--- a/vnc_innotiveȮ��.xlsx
+++ b/vnc_innotiveȮ��.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="23715" windowHeight="13905"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>1. 소개</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IP Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">info-string ( </t>
     </r>
@@ -448,12 +444,41 @@
     <t>초안 작성, v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IP Address </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(network byte order, ie. big-endian)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> reason-length 를 0으로 해서 전송하면, 서버가 적절한 메시지를 보낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 "Connection rejected by remote user" 로 보낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +546,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -559,7 +600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +641,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E97"/>
+  <dimension ref="A2:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -907,34 +954,42 @@
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="5" max="5" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" s="12" customFormat="1" ht="31.5">
       <c r="A2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="11">
+        <v>40419</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="11">
         <v>40417</v>
       </c>
-      <c r="D6" t="s">
-        <v>71</v>
+      <c r="D7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -954,7 +1009,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -984,7 +1039,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -999,7 +1054,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1107,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1122,7 +1177,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="C45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1269,88 +1324,89 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
-      <c r="B70" t="s">
+    <row r="68" spans="2:5">
+      <c r="C68" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="C69" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
-      <c r="C71" s="1" t="s">
+    <row r="72" spans="2:5">
+      <c r="C72" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
-      <c r="C73" s="3" t="s">
+    <row r="74" spans="2:5">
+      <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
-      <c r="C74" s="3">
+    <row r="75" spans="2:5">
+      <c r="C75" s="3">
         <v>100</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
-      <c r="C76" s="1" t="s">
+    <row r="77" spans="2:5">
+      <c r="C77" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
-      <c r="C77" s="3" t="s">
+    <row r="78" spans="2:5">
+      <c r="C78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="C79" s="3">
         <v>1</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>17</v>
+      <c r="D79" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="C80" s="3">
-        <v>2</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="C81" s="3">
-        <v>4</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="2:5">
@@ -1361,7 +1417,7 @@
         <v>22</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="2:5">
@@ -1372,87 +1428,93 @@
         <v>22</v>
       </c>
       <c r="E83" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="C84" s="3">
+        <v>4</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
-      <c r="C84" s="3" t="s">
+    <row r="85" spans="2:5">
+      <c r="C85" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" t="s">
-        <v>57</v>
+      <c r="E85" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="2:5">
-      <c r="C89" s="1" t="s">
-        <v>62</v>
+      <c r="B89" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="2:5">
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="C91" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="C91" s="3">
-        <v>1</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="92" spans="2:5">
       <c r="C92" s="3">
         <v>1</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>59</v>
+      <c r="D92" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="C93" s="3">
-        <v>2</v>
-      </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="C94" s="3">
+        <v>2</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="C95" s="3">
         <v>4</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E94" s="9" t="s">
+      <c r="D95" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="C95" s="7"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="10"/>
+      <c r="E95" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="96" spans="2:5">
       <c r="C96" s="7"/>
@@ -1463,6 +1525,11 @@
       <c r="C97" s="7"/>
       <c r="D97" s="4"/>
       <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="3:5">
+      <c r="C98" s="7"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
